--- a/DataAnalysis.xlsx
+++ b/DataAnalysis.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\.spyder2\Experiments\0.5 Appature\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\m83_clustering\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10410" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="10410" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="3 Clusters" sheetId="8" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="64">
   <si>
     <t>Wave 1</t>
   </si>
@@ -160,12 +160,75 @@
   <si>
     <t>http://www.astrobetter.com/plotting-to-a-file-in-python/</t>
   </si>
+  <si>
+    <t>Wide</t>
+  </si>
+  <si>
+    <t>Narrow</t>
+  </si>
+  <si>
+    <t>UV Wide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U-Band (Stromgren u) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[O II] </t>
+  </si>
+  <si>
+    <t>B-Band (WFPC2 B)</t>
+  </si>
+  <si>
+    <t>H-Beta</t>
+  </si>
+  <si>
+    <t>[O III]</t>
+  </si>
+  <si>
+    <t>V-Band south field (WFPC2 V)</t>
+  </si>
+  <si>
+    <t>Wide H-alpha and [N II]</t>
+  </si>
+  <si>
+    <t>[S II]</t>
+  </si>
+  <si>
+    <t>I-band (WFPC2 I)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>1 colour wide and a bunch of narrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plot uncertainty on same horizontal axis </t>
+  </si>
+  <si>
+    <t>aperture correction</t>
+  </si>
+  <si>
+    <t>extent of cluster in color space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stdev </t>
+  </si>
+  <si>
+    <t>centers</t>
+  </si>
+  <si>
+    <t>differences between centers</t>
+  </si>
+  <si>
+    <t>atammour@uwo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +240,14 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -238,7 +309,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -546,11 +617,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -640,8 +738,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1063,11 +1195,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="330571280"/>
-        <c:axId val="330560304"/>
+        <c:axId val="336452600"/>
+        <c:axId val="336442408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="330571280"/>
+        <c:axId val="336452600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1180,12 +1312,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330560304"/>
+        <c:crossAx val="336442408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="330560304"/>
+        <c:axId val="336442408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1298,7 +1430,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330571280"/>
+        <c:crossAx val="336452600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1939,13 +2071,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
@@ -3704,7 +3836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -9819,15 +9951,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -9835,84 +9973,206 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="12">
         <v>336</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D2" s="96" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="97"/>
+      <c r="F2" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="97"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="12">
         <v>373</v>
       </c>
-      <c r="G3" t="s">
+      <c r="D3" s="88">
+        <v>225</v>
+      </c>
+      <c r="E3" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="88">
+        <v>336</v>
+      </c>
+      <c r="G3" s="90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="12">
         <v>438</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="88">
+        <v>438</v>
+      </c>
+      <c r="E4" s="94" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="88">
+        <v>373</v>
+      </c>
+      <c r="G4" s="90" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="12">
         <v>487</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="88">
+        <v>555</v>
+      </c>
+      <c r="E5" s="94" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="88">
+        <v>487</v>
+      </c>
+      <c r="G5" s="90" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="12">
         <v>502</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="89">
+        <v>814</v>
+      </c>
+      <c r="E6" s="95" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="88">
+        <v>502</v>
+      </c>
+      <c r="G6" s="90" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="12">
         <v>555</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" s="88">
+        <v>657</v>
+      </c>
+      <c r="G7" s="90" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="12">
         <v>657</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="89">
+        <v>673</v>
+      </c>
+      <c r="G8" s="91" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="12">
         <v>673</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="92" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="69" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="69">
         <v>814</v>
       </c>
+      <c r="E10" s="93" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E11" s="92" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E12" s="92" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E13" s="92" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E14" s="92" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E15" s="92" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E16" s="92" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E10" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9921,7 +10181,7 @@
   <dimension ref="A1:BE435"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
